--- a/data/old_results/2013_presidential/2013MatSouth_Presidential_Results_Formatted_13-08-2013.xlsx
+++ b/data/old_results/2013_presidential/2013MatSouth_Presidential_Results_Formatted_13-08-2013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office\Desktop\DI\Zimbabwe_election\data\old_results\2013_presidential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EAF32D9F-C185-4A0A-A537-01B185AD1877}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06F4A48D-A0F5-4A9D-A233-D8855B9FB055}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="697">
   <si>
     <r>
       <rPr>
@@ -7036,6 +7036,18 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>60 shp district</t>
+  </si>
+  <si>
+    <t>Sum this with GWANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed in shape 3 </t>
   </si>
 </sst>
 </file>
@@ -7120,7 +7132,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7130,6 +7142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -7199,7 +7217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7275,13 +7293,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -17985,7 +18006,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42F0F834-7A5D-4543-A10E-D6F0D21FFD57}" name="PivotTable11" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42F0F834-7A5D-4543-A10E-D6F0D21FFD57}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -18388,94 +18409,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417487F0-245D-4070-8744-C7F69F29EB6A}">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>683</v>
       </c>
       <c r="B4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>684</v>
       </c>
       <c r="B5" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>685</v>
       </c>
       <c r="B6" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>686</v>
       </c>
       <c r="B7" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>687</v>
       </c>
       <c r="B8" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>688</v>
       </c>
       <c r="B9" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>689</v>
       </c>
       <c r="B10" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>690</v>
       </c>
       <c r="B11" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="28" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -18487,7 +18547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+    <sheetView topLeftCell="A601" workbookViewId="0">
       <selection activeCell="B625" sqref="B625:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -41358,7 +41418,7 @@
       <c r="C487" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D487" s="25">
+      <c r="D487" s="26">
         <v>3</v>
       </c>
       <c r="E487" s="3" t="s">
@@ -41405,7 +41465,7 @@
       <c r="C488" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D488" s="26"/>
+      <c r="D488" s="27"/>
       <c r="E488" s="3" t="s">
         <v>524</v>
       </c>

--- a/data/old_results/2013_presidential/2013MatSouth_Presidential_Results_Formatted_13-08-2013.xlsx
+++ b/data/old_results/2013_presidential/2013MatSouth_Presidential_Results_Formatted_13-08-2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office\Desktop\DI\Zimbabwe_election\data\old_results\2013_presidential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06F4A48D-A0F5-4A9D-A233-D8855B9FB055}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2B611F0-762B-4613-8FD8-14F7B7E10073}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="697">
   <si>
     <r>
       <rPr>
@@ -7296,14 +7296,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18006,7 +18006,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42F0F834-7A5D-4543-A10E-D6F0D21FFD57}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42F0F834-7A5D-4543-A10E-D6F0D21FFD57}" name="PivotTable11" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -18409,10 +18409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417487F0-245D-4070-8744-C7F69F29EB6A}">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F4" sqref="F4:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18422,15 +18422,23 @@
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="26" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>682</v>
       </c>
       <c r="D3" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>683</v>
       </c>
@@ -18440,8 +18448,11 @@
       <c r="D4" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -18451,8 +18462,11 @@
       <c r="D5" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>685</v>
       </c>
@@ -18462,8 +18476,11 @@
       <c r="D6" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>686</v>
       </c>
@@ -18473,8 +18490,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>687</v>
       </c>
@@ -18484,8 +18504,11 @@
       <c r="D8" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>688</v>
       </c>
@@ -18495,8 +18518,11 @@
       <c r="D9" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>689</v>
       </c>
@@ -18506,8 +18532,11 @@
       <c r="D10" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>690</v>
       </c>
@@ -18517,25 +18546,18 @@
       <c r="D11" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="28" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -18547,8 +18569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O624"/>
   <sheetViews>
-    <sheetView topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="B625" sqref="B625:B1048576"/>
+    <sheetView topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41418,7 +41440,7 @@
       <c r="C487" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D487" s="26">
+      <c r="D487" s="27">
         <v>3</v>
       </c>
       <c r="E487" s="3" t="s">
@@ -41465,7 +41487,7 @@
       <c r="C488" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D488" s="27"/>
+      <c r="D488" s="28"/>
       <c r="E488" s="3" t="s">
         <v>524</v>
       </c>
